--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H2">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N2">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O2">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P2">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q2">
-        <v>55.77433660808359</v>
+        <v>4.2553409016645</v>
       </c>
       <c r="R2">
-        <v>55.77433660808359</v>
+        <v>25.532045409987</v>
       </c>
       <c r="S2">
-        <v>0.261061763623723</v>
+        <v>0.01757094300810869</v>
       </c>
       <c r="T2">
-        <v>0.261061763623723</v>
+        <v>0.01944820919642631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H3">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N3">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P3">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q3">
-        <v>28.46099409389631</v>
+        <v>2.387065759723</v>
       </c>
       <c r="R3">
-        <v>28.46099409389631</v>
+        <v>21.483591837507</v>
       </c>
       <c r="S3">
-        <v>0.1332167761106112</v>
+        <v>0.009856553773234545</v>
       </c>
       <c r="T3">
-        <v>0.1332167761106112</v>
+        <v>0.01636443072371481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H4">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N4">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O4">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P4">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q4">
-        <v>20.59522494495391</v>
+        <v>1.785493902829</v>
       </c>
       <c r="R4">
-        <v>20.59522494495391</v>
+        <v>16.069445125461</v>
       </c>
       <c r="S4">
-        <v>0.09639963598558889</v>
+        <v>0.007372573040073539</v>
       </c>
       <c r="T4">
-        <v>0.09639963598558889</v>
+        <v>0.01224037970527085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H5">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N5">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O5">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P5">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q5">
-        <v>38.83303243504572</v>
+        <v>3.220916402446</v>
       </c>
       <c r="R5">
-        <v>38.83303243504572</v>
+        <v>28.988247622014</v>
       </c>
       <c r="S5">
-        <v>0.1817649577006526</v>
+        <v>0.01329964857084045</v>
       </c>
       <c r="T5">
-        <v>0.1817649577006526</v>
+        <v>0.02208085936468742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H6">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N6">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O6">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P6">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q6">
-        <v>41.09048864951083</v>
+        <v>3.153371707492</v>
       </c>
       <c r="R6">
-        <v>41.09048864951083</v>
+        <v>28.380345367428</v>
       </c>
       <c r="S6">
-        <v>0.1923313854968764</v>
+        <v>0.01302074635995704</v>
       </c>
       <c r="T6">
-        <v>0.1923313854968764</v>
+        <v>0.02161780949820304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.133971</v>
+      </c>
+      <c r="H7">
+        <v>0.401913</v>
+      </c>
+      <c r="I7">
+        <v>0.07044564940760263</v>
+      </c>
+      <c r="J7">
+        <v>0.1020731687804873</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.857219</v>
+      </c>
+      <c r="N7">
+        <v>33.714438</v>
+      </c>
+      <c r="O7">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P7">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q7">
+        <v>2.258378486649</v>
+      </c>
+      <c r="R7">
+        <v>13.550270919894</v>
+      </c>
+      <c r="S7">
+        <v>0.009325184655388377</v>
+      </c>
+      <c r="T7">
+        <v>0.01032148029218489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.767793</v>
+      </c>
+      <c r="H8">
+        <v>3.535586</v>
+      </c>
+      <c r="I8">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J8">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.7631495</v>
+      </c>
+      <c r="N8">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O8">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P8">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q8">
+        <v>56.15067334405349</v>
+      </c>
+      <c r="R8">
+        <v>224.602693376214</v>
+      </c>
+      <c r="S8">
+        <v>0.2318545808655118</v>
+      </c>
+      <c r="T8">
+        <v>0.1710838319734771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.767793</v>
+      </c>
+      <c r="H9">
+        <v>3.535586</v>
+      </c>
+      <c r="I9">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J9">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N9">
+        <v>53.453339</v>
+      </c>
+      <c r="O9">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P9">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q9">
+        <v>31.49814617027566</v>
+      </c>
+      <c r="R9">
+        <v>188.988877021654</v>
+      </c>
+      <c r="S9">
+        <v>0.1300605859809034</v>
+      </c>
+      <c r="T9">
+        <v>0.1439561600762751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.767793</v>
+      </c>
+      <c r="H10">
+        <v>3.535586</v>
+      </c>
+      <c r="I10">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J10">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N10">
+        <v>39.982397</v>
+      </c>
+      <c r="O10">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P10">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q10">
+        <v>23.56020051327367</v>
+      </c>
+      <c r="R10">
+        <v>141.361203079642</v>
+      </c>
+      <c r="S10">
+        <v>0.09728361370916631</v>
+      </c>
+      <c r="T10">
+        <v>0.1076773210138506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.767793</v>
+      </c>
+      <c r="H11">
+        <v>3.535586</v>
+      </c>
+      <c r="I11">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J11">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N11">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P11">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q11">
+        <v>42.50108956288467</v>
+      </c>
+      <c r="R11">
+        <v>255.006537377308</v>
+      </c>
+      <c r="S11">
+        <v>0.1754933951824778</v>
+      </c>
+      <c r="T11">
+        <v>0.1942429760613808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.76189964948773</v>
-      </c>
-      <c r="H7">
-        <v>1.76189964948773</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="N7">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="O7">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="P7">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="Q7">
-        <v>28.8901422988882</v>
-      </c>
-      <c r="R7">
-        <v>28.8901422988882</v>
-      </c>
-      <c r="S7">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="T7">
-        <v>0.135225481082548</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.767793</v>
+      </c>
+      <c r="H12">
+        <v>3.535586</v>
+      </c>
+      <c r="I12">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J12">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N12">
+        <v>70.613156</v>
+      </c>
+      <c r="O12">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P12">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q12">
+        <v>41.60981429490266</v>
+      </c>
+      <c r="R12">
+        <v>249.658885769416</v>
+      </c>
+      <c r="S12">
+        <v>0.1718131854648209</v>
+      </c>
+      <c r="T12">
+        <v>0.1901695755362819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.767793</v>
+      </c>
+      <c r="H13">
+        <v>3.535586</v>
+      </c>
+      <c r="I13">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J13">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.857219</v>
+      </c>
+      <c r="N13">
+        <v>33.714438</v>
+      </c>
+      <c r="O13">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P13">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q13">
+        <v>29.800073747667</v>
+      </c>
+      <c r="R13">
+        <v>119.200294990668</v>
+      </c>
+      <c r="S13">
+        <v>0.123048989389517</v>
+      </c>
+      <c r="T13">
+        <v>0.09079696655824721</v>
       </c>
     </row>
   </sheetData>
